--- a/regionseng/2/industry/industry.xlsx
+++ b/regionseng/2/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -171,6 +177,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +497,7 @@
     <col min="1" max="1" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -502,7 +514,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>2006</v>
@@ -549,8 +561,14 @@
       <c r="P2" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q2" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -599,8 +617,14 @@
       <c r="P3" s="3">
         <v>809.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q3" s="14">
+        <v>876.7</v>
+      </c>
+      <c r="R3" s="14">
+        <v>854.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -649,8 +673,14 @@
       <c r="P4" s="3">
         <v>800.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q4" s="14">
+        <v>825.6</v>
+      </c>
+      <c r="R4" s="14">
+        <v>818.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -699,8 +729,14 @@
       <c r="P5" s="13">
         <v>4245</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q5" s="15">
+        <v>4691</v>
+      </c>
+      <c r="R5" s="15">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -749,8 +785,14 @@
       <c r="P6" s="13">
         <v>3863</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q6" s="15">
+        <v>4354</v>
+      </c>
+      <c r="R6" s="15">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,8 +841,14 @@
       <c r="P7" s="3">
         <v>942.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q7" s="14">
+        <v>961</v>
+      </c>
+      <c r="R7" s="14">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -849,8 +897,14 @@
       <c r="P8" s="3">
         <v>606.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q8" s="14">
+        <v>651.20000000000005</v>
+      </c>
+      <c r="R8" s="14">
+        <v>594.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -899,8 +953,14 @@
       <c r="P9" s="3">
         <v>44.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q9" s="14">
+        <v>50.9</v>
+      </c>
+      <c r="R9" s="14">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -949,8 +1009,14 @@
       <c r="P10" s="3">
         <v>193.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q10" s="14">
+        <v>174.4</v>
+      </c>
+      <c r="R10" s="14">
+        <v>223.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -999,8 +1065,14 @@
       <c r="P11" s="3">
         <v>85.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q11" s="14">
+        <v>59.3</v>
+      </c>
+      <c r="R11" s="14">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1049,15 +1121,21 @@
       <c r="P12" s="3">
         <v>657.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q12" s="14">
+        <v>699.2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>659.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/2/industry/industry.xlsx
+++ b/regionseng/2/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -497,7 +497,7 @@
     <col min="1" max="1" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>2006</v>
@@ -567,8 +567,11 @@
       <c r="R2" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S2" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -623,8 +626,11 @@
       <c r="R3" s="14">
         <v>854.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S3" s="14">
+        <v>896.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -679,8 +685,11 @@
       <c r="R4" s="14">
         <v>818.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S4" s="14">
+        <v>891.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -735,8 +744,11 @@
       <c r="R5" s="15">
         <v>4766</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S5" s="15">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -791,8 +803,11 @@
       <c r="R6" s="15">
         <v>4390</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S6" s="15">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -847,8 +862,11 @@
       <c r="R7" s="14">
         <v>1002.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S7" s="14">
+        <v>1016.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -903,8 +921,11 @@
       <c r="R8" s="14">
         <v>594.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S8" s="14">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -959,8 +980,11 @@
       <c r="R9" s="14">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S9" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1015,8 +1039,11 @@
       <c r="R10" s="14">
         <v>223.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S10" s="14">
+        <v>385.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1071,8 +1098,11 @@
       <c r="R11" s="14">
         <v>156.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S11" s="14">
+        <v>132.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1127,15 +1157,18 @@
       <c r="R12" s="14">
         <v>659.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S12" s="14">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
